--- a/docs/sprints.xlsx
+++ b/docs/sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\back-end\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD3F9A0-D43D-4309-A5CD-F930C143FF3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA27F68F-D846-4A17-8B7C-43A355CCBF56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -522,7 +522,9 @@
       <c r="C2" s="1">
         <v>34</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>29</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -539,7 +541,9 @@
       <c r="B3" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>34</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>

--- a/docs/sprints.xlsx
+++ b/docs/sprints.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\back-end\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA27F68F-D846-4A17-8B7C-43A355CCBF56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9A52AA-D262-410F-9F0C-B43F2B5C5C55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -525,7 +525,9 @@
       <c r="D2" s="1">
         <v>29</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>55</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -544,7 +546,9 @@
       <c r="C3" s="1">
         <v>34</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>

--- a/docs/sprints.xlsx
+++ b/docs/sprints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\back-end\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9A52AA-D262-410F-9F0C-B43F2B5C5C55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0996F55-AC85-4578-9DA4-61934B4EFB48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -528,7 +528,9 @@
       <c r="E2" s="1">
         <v>55</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>55</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -549,8 +551,12 @@
       <c r="D3" s="1">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>26</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
